--- a/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
+++ b/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Miranda/Documents/School/Project and Portfolio 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Miranda/GitHub/lee_miranda_porfolio/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="460" windowWidth="16780" windowHeight="18520" tabRatio="500"/>
+    <workbookView xWindow="12020" yWindow="460" windowWidth="16780" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,10 +801,12 @@
       <c r="C15" s="26">
         <v>1</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
       <c r="E15" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -815,10 +817,12 @@
       <c r="C16" s="26">
         <v>1</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -829,10 +833,12 @@
       <c r="C17" s="26">
         <v>2</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E17" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -843,10 +849,12 @@
       <c r="C18" s="26">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
       <c r="E18" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -857,10 +865,12 @@
       <c r="C19" s="26">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -871,10 +881,12 @@
       <c r="C20" s="26">
         <v>0.5</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="30">
         <f t="shared" ref="E20" si="2">C20-D20</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -891,11 +903,13 @@
       <c r="B22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="27">
+        <v>2</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -903,11 +917,13 @@
       <c r="B23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="31">
         <f t="shared" ref="E23" si="3">C23-D23</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -915,11 +931,13 @@
       <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -927,11 +945,13 @@
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -939,11 +959,13 @@
       <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D26" s="12"/>
       <c r="E26" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">

--- a/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
+++ b/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,10 +906,12 @@
       <c r="C22" s="27">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>2.5</v>
+      </c>
       <c r="E22" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -920,10 +922,12 @@
       <c r="C23" s="27">
         <v>0.5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="31">
         <f t="shared" ref="E23" si="3">C23-D23</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -934,10 +938,12 @@
       <c r="C24" s="27">
         <v>0.5</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="31">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -948,10 +954,12 @@
       <c r="C25" s="27">
         <v>0.5</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -962,10 +970,12 @@
       <c r="C26" s="27">
         <v>0.5</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.5</v>
+      </c>
       <c r="E26" s="31">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">

--- a/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
+++ b/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,11 +990,13 @@
       <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,11 +1004,13 @@
       <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,11 +1018,13 @@
       <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,11 +1032,13 @@
       <c r="B31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="28">
+        <v>2</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,11 +1046,13 @@
       <c r="B32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="32">
         <f t="shared" ref="E32" si="4">C32-D32</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,11 +1060,13 @@
       <c r="B33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
+++ b/components/LeeMiranda_1601Wk1_Time Estimation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Miranda Lee</t>
   </si>
@@ -105,13 +105,31 @@
   </si>
   <si>
     <t>Success!</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Pay Rate (per hour)</t>
+  </si>
+  <si>
+    <t>Total Cost for Week</t>
+  </si>
+  <si>
+    <t>Total Cost for Month</t>
+  </si>
+  <si>
+    <t>Total time for Week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +153,29 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,16 +303,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,15 +368,49 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,453 +695,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="26">
         <f>C7-D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="26">
         <f t="shared" ref="E8" si="0">C8-D8</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
-        <f t="shared" ref="E9:E33" si="1">C9-D9</f>
+      <c r="E9" s="26">
+        <f t="shared" ref="E9:E36" si="1">C9-D9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>2.5</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="26">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="E14" s="2"/>
+      <c r="C13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="38">
+        <f>SUM(C7:C13)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="38">
+        <f>SUM(D7:D13)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E14" s="38">
+        <f>SUM(E7:E13)</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="33">
+        <f>C14*C39</f>
+        <v>360</v>
+      </c>
+      <c r="D15" s="33">
+        <f>D14*C39</f>
+        <v>382.5</v>
+      </c>
+      <c r="E15" s="33">
+        <f>E14*C39</f>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C16" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="9" t="s">
+      <c r="E16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C17" s="23">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="30">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C18" s="23">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="7">
         <v>1.5</v>
       </c>
-      <c r="E17" s="30">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
+      <c r="E18" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C19" s="23">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E19" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="30">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" ref="E20" si="2">C20-D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="C21" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" ref="E21" si="2">C21-D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="39">
+        <f>SUM(C16:C21)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D22" s="39">
+        <f>SUM(D16:D21)</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="39">
+        <f>SUM(E16:E21)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="34">
+        <f>C22*C39</f>
+        <v>337.5</v>
+      </c>
+      <c r="D23" s="34">
+        <f>D22*C39</f>
+        <v>225</v>
+      </c>
+      <c r="E23" s="34">
+        <f>E22*C39</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C24" s="24">
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D24" s="9">
         <v>2.5</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E24" s="28">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11" t="s">
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="31">
-        <f t="shared" ref="E23" si="3">C23-D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11" t="s">
+      <c r="C25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="28">
+        <f t="shared" ref="E25" si="3">C25-D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11" t="s">
+      <c r="C26" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11" t="s">
+      <c r="C27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="C28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="41">
+        <f>SUM(C24:C28)</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="41">
+        <f>SUM(D24:D28)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E29" s="41">
+        <f>SUM(E24:E28)</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="35">
+        <f>C29*C39</f>
+        <v>180</v>
+      </c>
+      <c r="D30" s="35">
+        <f>D29*C39</f>
+        <v>202.5</v>
+      </c>
+      <c r="E30" s="35">
+        <f>E29*C39</f>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="32">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="13" t="s">
+      <c r="C31" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="32">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="13" t="s">
+      <c r="C32" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C33" s="25">
         <v>1</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="32">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="13" t="s">
+      <c r="D33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C34" s="25">
         <v>2</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="32">
-        <f t="shared" si="1"/>
+      <c r="D34" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="13" t="s">
+      <c r="E34" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="32">
-        <f t="shared" ref="E32" si="4">C32-D32</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13" t="s">
+      <c r="C35" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" ref="E35" si="4">C35-D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="32">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
+      <c r="C36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="43">
+        <f>SUM(C31:C36)</f>
+        <v>5</v>
+      </c>
+      <c r="D37" s="43">
+        <f>SUM(D31:D36)</f>
+        <v>5</v>
+      </c>
+      <c r="E37" s="43">
+        <f>SUM(E31:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="31">
+        <f>C37*C39</f>
+        <v>225</v>
+      </c>
+      <c r="D38" s="31">
+        <f>D37*C39</f>
+        <v>225</v>
+      </c>
+      <c r="E38" s="31">
+        <f>E37*C39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="49">
+        <v>45</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+    </row>
+    <row r="40" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="50">
+        <f>SUM(C14+C22+C29+C37)</f>
+        <v>24.5</v>
+      </c>
+      <c r="D40" s="50">
+        <f t="shared" ref="D40:E40" si="5">SUM(D14+D22+D29+D37)</f>
+        <v>23</v>
+      </c>
+      <c r="E40" s="50">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="49">
+        <f>C38+C30+C23+C15</f>
+        <v>1102.5</v>
+      </c>
+      <c r="D41" s="49">
+        <f t="shared" ref="D41:E41" si="6">D38+D30+D23+D15</f>
+        <v>1035</v>
+      </c>
+      <c r="E41" s="49">
+        <f t="shared" si="6"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
